--- a/data/trans_orig/P25A$medico-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>113004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94594</v>
+        <v>98243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129197</v>
+        <v>129767</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.37286515851191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3121193746739151</v>
+        <v>0.3241604973706088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4262945029159791</v>
+        <v>0.4281746376542842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +764,19 @@
         <v>6958</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2834</v>
+        <v>3075</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12543</v>
+        <v>13102</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1444776219265327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05883884545764663</v>
+        <v>0.06385105513966904</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2604504106945827</v>
+        <v>0.2720681901259237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -785,19 +785,19 @@
         <v>119962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103163</v>
+        <v>103491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137581</v>
+        <v>138107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3415499821257731</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2937196251200285</v>
+        <v>0.2946539057796479</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3917133669739898</v>
+        <v>0.3932112041351787</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>56402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45005</v>
+        <v>43965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72691</v>
+        <v>71035</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1861030083282576</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1484985814465535</v>
+        <v>0.1450654374916207</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2398485937013106</v>
+        <v>0.2343860707408254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -835,19 +835,19 @@
         <v>5822</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2802</v>
+        <v>2017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11723</v>
+        <v>10988</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1208926991923323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05818523257045729</v>
+        <v>0.04188420247729987</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.243434575657978</v>
+        <v>0.2281558276638497</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -856,19 +856,19 @@
         <v>62224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48802</v>
+        <v>48322</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76699</v>
+        <v>79003</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1771617483833541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1389458850025179</v>
+        <v>0.1375791881767422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2183731325578566</v>
+        <v>0.2249347685040968</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>7526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2884</v>
+        <v>3194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15298</v>
+        <v>16920</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02483124508986131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009514482078428692</v>
+        <v>0.01054032570664286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05047555328603016</v>
+        <v>0.05583032557211001</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5410</v>
+        <v>3363</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01660565865740755</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1123408784943216</v>
+        <v>0.06983907768850631</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -927,19 +927,19 @@
         <v>8325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3933</v>
+        <v>3760</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15734</v>
+        <v>15864</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02370340031399101</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01119695044431189</v>
+        <v>0.0107061123890168</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04479775456914991</v>
+        <v>0.04516852644140932</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>17838</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10854</v>
+        <v>10703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27465</v>
+        <v>26769</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05885905335379529</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03581424887712251</v>
+        <v>0.03531611978562337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09062365658240405</v>
+        <v>0.08832456929279371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6651</v>
+        <v>6683</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02379083217965001</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1380982729975099</v>
+        <v>0.1387707491365794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -998,19 +998,19 @@
         <v>18984</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11781</v>
+        <v>12050</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28990</v>
+        <v>30014</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05405070195233474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03354365841689283</v>
+        <v>0.03430757763023817</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08253961027079779</v>
+        <v>0.08545530679602083</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>11295</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6261</v>
+        <v>6406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19020</v>
+        <v>19586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03726895657704736</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02065935180058741</v>
+        <v>0.02113820448883374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06275774475178381</v>
+        <v>0.06462644778570563</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5903</v>
+        <v>6161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04214772615938749</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1225777584712976</v>
+        <v>0.1279385636060128</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1069,19 +1069,19 @@
         <v>13325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7576</v>
+        <v>7694</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21807</v>
+        <v>22032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03793790520840662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02157106166694331</v>
+        <v>0.02190663330894089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06208797521830777</v>
+        <v>0.06272854990732338</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>146570</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>130194</v>
+        <v>129182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>164137</v>
+        <v>164555</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4836191845359518</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4295839514371636</v>
+        <v>0.426246256290323</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5415813899489694</v>
+        <v>0.5429619694148164</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -1119,19 +1119,19 @@
         <v>36399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30045</v>
+        <v>29847</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41410</v>
+        <v>41402</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.755833081977165</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6238926622222424</v>
+        <v>0.6197626923029804</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8598866869242632</v>
+        <v>0.8597040556981201</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>182</v>
@@ -1140,19 +1140,19 @@
         <v>182970</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>163740</v>
+        <v>164955</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>200244</v>
+        <v>201691</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.52094357771685</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.466193885361611</v>
+        <v>0.4696533282695281</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.570124160288072</v>
+        <v>0.5742439223599018</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>45858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35111</v>
+        <v>34658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59594</v>
+        <v>58956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1934439173541654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1481081697326669</v>
+        <v>0.1461977682770373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2513840212939434</v>
+        <v>0.2486927992278631</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1194,19 +1194,19 @@
         <v>11083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5578</v>
+        <v>5788</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18478</v>
+        <v>19477</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07329098883981064</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03688609842502771</v>
+        <v>0.03827645218339062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1221961607229398</v>
+        <v>0.1288009568669159</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1215,19 +1215,19 @@
         <v>56941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43658</v>
+        <v>44419</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72032</v>
+        <v>72624</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1466501789333751</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1124388127376593</v>
+        <v>0.1143986473810631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1855157446962503</v>
+        <v>0.1870402036998271</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>49748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38542</v>
+        <v>38473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63289</v>
+        <v>63181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2098504740503464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1625814130199239</v>
+        <v>0.1622908266555853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2669701138499744</v>
+        <v>0.2665161463534831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1265,19 +1265,19 @@
         <v>22434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14286</v>
+        <v>14997</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31800</v>
+        <v>32160</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1483547063370157</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09447465493317854</v>
+        <v>0.0991764385352894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2102939500713011</v>
+        <v>0.2126757609616952</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -1286,19 +1286,19 @@
         <v>72182</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57739</v>
+        <v>57163</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88068</v>
+        <v>87996</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1859008549778534</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1487045674643419</v>
+        <v>0.14722038775386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2268146955120116</v>
+        <v>0.2266304482580362</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>4034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9401</v>
+        <v>9285</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0170182641375487</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004364341589929597</v>
+        <v>0.004348526578214069</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0396561296703059</v>
+        <v>0.03916665902511191</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1336,19 +1336,19 @@
         <v>23227</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15174</v>
+        <v>14954</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32675</v>
+        <v>34051</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1536026407066018</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1003443209300863</v>
+        <v>0.09889215528048086</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2160808867480718</v>
+        <v>0.225181982785051</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -1357,19 +1357,19 @@
         <v>27262</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19083</v>
+        <v>18741</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39765</v>
+        <v>38146</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07021125467523182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04914758558278303</v>
+        <v>0.04826754375933146</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1024129540096926</v>
+        <v>0.09824377210034499</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>21126</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13303</v>
+        <v>13977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31727</v>
+        <v>32574</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08911750353171173</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05611522240574823</v>
+        <v>0.05895696435324138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1338356990300917</v>
+        <v>0.1374055301217441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1407,19 +1407,19 @@
         <v>15753</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9205</v>
+        <v>9427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24573</v>
+        <v>24523</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1041764191471145</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06087227542667745</v>
+        <v>0.06233917046156175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1625042902869189</v>
+        <v>0.1621719201756765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1428,19 +1428,19 @@
         <v>36880</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26569</v>
+        <v>26097</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50310</v>
+        <v>48774</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09498222082924915</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06842846259295188</v>
+        <v>0.06721151720012204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1295715456369824</v>
+        <v>0.1256162556795818</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>6808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3036</v>
+        <v>2804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13802</v>
+        <v>13793</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02871977818388875</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01280780667318856</v>
+        <v>0.01182764677566912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05822056090475812</v>
+        <v>0.05818440201211544</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1481,16 +1481,16 @@
         <v>2793</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13437</v>
+        <v>13422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0439457513580884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01847240541307333</v>
+        <v>0.01847050463509443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08885782223572229</v>
+        <v>0.08876259595528964</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1499,19 +1499,19 @@
         <v>13454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7411</v>
+        <v>7608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21846</v>
+        <v>21548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03464955629853826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01908656035558454</v>
+        <v>0.01959335694356991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05626445960259759</v>
+        <v>0.05549629664411792</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>154063</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>137591</v>
+        <v>138405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>167954</v>
+        <v>168343</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6498808197626512</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5804002020012796</v>
+        <v>0.5838340848917265</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7084802962594465</v>
+        <v>0.7101186678656877</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>94</v>
@@ -1549,19 +1549,19 @@
         <v>96106</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>84158</v>
+        <v>82736</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>107646</v>
+        <v>107575</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6355518460072342</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5565448252820117</v>
+        <v>0.5471367498204358</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7118693155975245</v>
+        <v>0.7114018414498441</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>242</v>
@@ -1570,19 +1570,19 @@
         <v>250169</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>230446</v>
+        <v>231939</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>268429</v>
+        <v>268692</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6443003794185006</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5935041915848631</v>
+        <v>0.597349108775526</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6913288526179686</v>
+        <v>0.6920052534575563</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>10636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5316</v>
+        <v>5226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18758</v>
+        <v>19316</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1259661617839197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06296029974310087</v>
+        <v>0.06189665856237045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2221595003494483</v>
+        <v>0.2287620668775165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1624,19 +1624,19 @@
         <v>3011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8079</v>
+        <v>8077</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05862073524336654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01856046851245513</v>
+        <v>0.01882913295825782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1572893005456276</v>
+        <v>0.1572675557140318</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1645,19 +1645,19 @@
         <v>13647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7121</v>
+        <v>7366</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22964</v>
+        <v>22364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1004948219306849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05244098872565604</v>
+        <v>0.0542400065989652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1691077257686191</v>
+        <v>0.1646876051616173</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>11650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5887</v>
+        <v>6188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19672</v>
+        <v>19809</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1379757311452545</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06971818282450032</v>
+        <v>0.07328725627178719</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2329797034222179</v>
+        <v>0.2346115205637975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1695,19 +1695,19 @@
         <v>8143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3945</v>
+        <v>3902</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14492</v>
+        <v>14842</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1585508693996547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07680143563972797</v>
+        <v>0.07597291796622699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2821647305248204</v>
+        <v>0.288976031274901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1716,19 +1716,19 @@
         <v>19793</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12136</v>
+        <v>12715</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29297</v>
+        <v>30382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1457576454626215</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0893689656748753</v>
+        <v>0.09363047373629993</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2157420296648649</v>
+        <v>0.2237296956351247</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>2754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7562</v>
+        <v>7638</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03261507730853847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009711734367353711</v>
+        <v>0.009578459973357491</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08955563160447891</v>
+        <v>0.09045632518144209</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1766,19 +1766,19 @@
         <v>3460</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8357</v>
+        <v>9010</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06735971442984785</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01905014937017077</v>
+        <v>0.01905937486908708</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1627104768645606</v>
+        <v>0.1754301941568731</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1787,19 +1787,19 @@
         <v>6214</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2378</v>
+        <v>2710</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12055</v>
+        <v>12733</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04575616952006788</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01751194926177983</v>
+        <v>0.01995792446850425</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08877648342359835</v>
+        <v>0.09376872802438507</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>8612</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3849</v>
+        <v>3993</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14635</v>
+        <v>15526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1019984426421378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04558967638533752</v>
+        <v>0.04729020139085335</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1733304687135052</v>
+        <v>0.1838856827507288</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1837,19 +1837,19 @@
         <v>3669</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8630</v>
+        <v>9865</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0714310720061451</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02296831215980115</v>
+        <v>0.02278884370958512</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1680174611859276</v>
+        <v>0.1920756414171997</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1858,19 +1858,19 @@
         <v>12281</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6947</v>
+        <v>6639</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20998</v>
+        <v>21325</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0904372732222616</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05115965890577739</v>
+        <v>0.04888617814957288</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1546270408620377</v>
+        <v>0.1570380334066737</v>
       </c>
     </row>
     <row r="20">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5790</v>
+        <v>5973</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02225596123974618</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06857758640993819</v>
+        <v>0.07074254621873362</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1908,19 +1908,19 @@
         <v>3968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9108</v>
+        <v>9434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07726437054510028</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.018713259331595</v>
+        <v>0.01832024972385211</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1773329288068072</v>
+        <v>0.1836791278429857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1929,19 +1929,19 @@
         <v>5848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1954</v>
+        <v>1983</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11875</v>
+        <v>12058</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04306120311253765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01438698110416835</v>
+        <v>0.01460560362067238</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08744954123730282</v>
+        <v>0.08879828857793995</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>58316</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>48957</v>
+        <v>48596</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65854</v>
+        <v>66402</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.690664616019349</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5798153883147833</v>
+        <v>0.5755470534058016</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.779937572066476</v>
+        <v>0.7864292641650354</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -1979,19 +1979,19 @@
         <v>33339</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26441</v>
+        <v>25937</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39878</v>
+        <v>39287</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6491111372802598</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5148127524413471</v>
+        <v>0.5049960244310472</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7764211869640762</v>
+        <v>0.764911717742185</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>85</v>
@@ -2000,19 +2000,19 @@
         <v>91655</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>80383</v>
+        <v>79816</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>102265</v>
+        <v>101206</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6749482885207005</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5919372205303125</v>
+        <v>0.5877636128059927</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7530812336419301</v>
+        <v>0.7452767627805408</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>169499</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148579</v>
+        <v>148843</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191363</v>
+        <v>193057</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2713851831828314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2378911544092303</v>
+        <v>0.2383141626000216</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3063928020560311</v>
+        <v>0.3091056365479292</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2054,19 +2054,19 @@
         <v>21051</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08395866295417657</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>196</v>
@@ -2075,19 +2075,19 @@
         <v>190550</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166565</v>
+        <v>165782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214749</v>
+        <v>215837</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2176959287262716</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1902942164948042</v>
+        <v>0.1893999692709256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2453429966235182</v>
+        <v>0.2465853388569809</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>117800</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>100231</v>
+        <v>97800</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137732</v>
+        <v>136046</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1886103771109658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.160481310139349</v>
+        <v>0.1565875036098018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2205235608698266</v>
+        <v>0.2178246520846337</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2125,19 +2125,19 @@
         <v>36399</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1451686946557249</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>156</v>
@@ -2146,19 +2146,19 @@
         <v>154199</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>133375</v>
+        <v>134189</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>180645</v>
+        <v>176456</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.176166292140946</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1523758334189459</v>
+        <v>0.1533054900659898</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2063795779975149</v>
+        <v>0.2015938963015177</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>14314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7665</v>
+        <v>8640</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22910</v>
+        <v>23885</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02291801414162394</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01227294191809591</v>
+        <v>0.01383412156540324</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0366819330260969</v>
+        <v>0.03824169442862028</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -2196,19 +2196,19 @@
         <v>27487</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1096237948179564</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -2217,19 +2217,19 @@
         <v>41800</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30578</v>
+        <v>30775</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57125</v>
+        <v>55531</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04775531419877228</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03493428982251258</v>
+        <v>0.03515896717528328</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06526313921903636</v>
+        <v>0.06344152492237816</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>47577</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35696</v>
+        <v>36194</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61124</v>
+        <v>63090</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07617606090451684</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05715365578875142</v>
+        <v>0.05794984660646149</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09786552581809721</v>
+        <v>0.1010134983900537</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2267,19 +2267,19 @@
         <v>20568</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08202930017612507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2288,19 +2288,19 @@
         <v>68145</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53216</v>
+        <v>53378</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>84848</v>
+        <v>84834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07785275026664724</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06079764237681053</v>
+        <v>0.06098240817162693</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09693515835949419</v>
+        <v>0.09692007762438039</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>19983</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12690</v>
+        <v>12284</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29489</v>
+        <v>29530</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03199439751305172</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02031758320505778</v>
+        <v>0.01966821497227282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04721505152970952</v>
+        <v>0.04728025304612966</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2338,19 +2338,19 @@
         <v>12643</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0504253938110286</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -2359,19 +2359,19 @@
         <v>32626</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23253</v>
+        <v>23491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45204</v>
+        <v>45053</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03727404763365779</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02656607538460742</v>
+        <v>0.02683798294386944</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0516434544043517</v>
+        <v>0.05147121480998889</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>358950</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>334090</v>
+        <v>334623</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>382443</v>
+        <v>385015</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5747164627178492</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5349144469809471</v>
+        <v>0.5357665101311883</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6123322106212458</v>
+        <v>0.6164507688180445</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>161</v>
@@ -2409,19 +2409,19 @@
         <v>165844</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6614316010896456</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>509</v>
@@ -2430,19 +2430,19 @@
         <v>524794</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>496831</v>
+        <v>495846</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>554047</v>
+        <v>552525</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5995564433331826</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5676105368318644</v>
+        <v>0.5664853890876614</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.632976930546761</v>
+        <v>0.6312384192065079</v>
       </c>
     </row>
     <row r="28">
@@ -2702,19 +2702,19 @@
         <v>106973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91680</v>
+        <v>89350</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125865</v>
+        <v>124904</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2875074448710008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2464048761427372</v>
+        <v>0.2401433036024756</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3382828139883107</v>
+        <v>0.3357005067906247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2723,19 +2723,19 @@
         <v>14493</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8274</v>
+        <v>8219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21971</v>
+        <v>21527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2098194910647888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.11979508184494</v>
+        <v>0.1189888375172416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3180893350509703</v>
+        <v>0.3116618379603434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -2744,19 +2744,19 @@
         <v>121466</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103449</v>
+        <v>103299</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141183</v>
+        <v>142128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2753434664626174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2345024891052713</v>
+        <v>0.2341628697106407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3200408553522073</v>
+        <v>0.3221812157694422</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>44180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31730</v>
+        <v>31690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57230</v>
+        <v>58289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1187401939798466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08527891377290535</v>
+        <v>0.08517340637323864</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1538156767583324</v>
+        <v>0.1566617340185622</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7078</v>
+        <v>6100</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02884916390253718</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1024655634459454</v>
+        <v>0.08830999841385193</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -2815,19 +2815,19 @@
         <v>46172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33304</v>
+        <v>33742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60325</v>
+        <v>62354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1046655209398636</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07549410941146292</v>
+        <v>0.0764887255545708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1367473004583084</v>
+        <v>0.1413470876757889</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>7241</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2863</v>
+        <v>2937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16439</v>
+        <v>16826</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01946232029812449</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007694167058912614</v>
+        <v>0.007893646509852463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04418340277291895</v>
+        <v>0.04522379505041696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -2865,19 +2865,19 @@
         <v>3100</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8452</v>
+        <v>7501</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04488739073607824</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01424532796555667</v>
+        <v>0.01437275728712446</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1223707381579619</v>
+        <v>0.1086015173826297</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -2886,19 +2886,19 @@
         <v>10342</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5235</v>
+        <v>5146</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20828</v>
+        <v>21031</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02344324646089038</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01186629677806933</v>
+        <v>0.01166589639013888</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04721271770433991</v>
+        <v>0.04767506682648701</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>23097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14744</v>
+        <v>15215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34188</v>
+        <v>35369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06207771782906779</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0396275154722656</v>
+        <v>0.04089270797945228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0918868092166652</v>
+        <v>0.09505982300476848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2936,19 +2936,19 @@
         <v>3061</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8115</v>
+        <v>8408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04431311794487183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01363261903230297</v>
+        <v>0.01357062522985338</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1174879903943013</v>
+        <v>0.1217221867723824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -2957,19 +2957,19 @@
         <v>26158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16782</v>
+        <v>16906</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37361</v>
+        <v>38415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05929622856544335</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0380410495840991</v>
+        <v>0.03832224854996402</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0846910248834324</v>
+        <v>0.08708150822330671</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>9636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4244</v>
+        <v>4469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17572</v>
+        <v>19281</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.025898971455218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01140544140914844</v>
+        <v>0.01201224181905726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04722754651739879</v>
+        <v>0.05182109557527501</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6869</v>
+        <v>7487</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03224806357784987</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09945411420170711</v>
+        <v>0.1083996691743948</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -3028,19 +3028,19 @@
         <v>11864</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6144</v>
+        <v>5402</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22181</v>
+        <v>21310</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02689307949525182</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01392747532690405</v>
+        <v>0.01224654401327315</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05028185684542694</v>
+        <v>0.04830569125741424</v>
       </c>
     </row>
     <row r="9">
@@ -3057,19 +3057,19 @@
         <v>219114</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>199366</v>
+        <v>197216</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>237906</v>
+        <v>238542</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.588906530176142</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5358283988686536</v>
+        <v>0.5300513424276715</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.639411193407781</v>
+        <v>0.6411221298154866</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -3078,19 +3078,19 @@
         <v>49426</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41578</v>
+        <v>40935</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>56610</v>
+        <v>55758</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.715573610536149</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6019466868303925</v>
+        <v>0.592644282766264</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8195820481574905</v>
+        <v>0.8072456070596746</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>253</v>
@@ -3099,19 +3099,19 @@
         <v>268541</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>245459</v>
+        <v>245911</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>289927</v>
+        <v>289671</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.608739407154669</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5564166477546317</v>
+        <v>0.5574425467922334</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6572197237654787</v>
+        <v>0.6566398980433794</v>
       </c>
     </row>
     <row r="10">
@@ -3132,19 +3132,19 @@
         <v>42652</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31049</v>
+        <v>30785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55884</v>
+        <v>55863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1226545207904501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08928734809284149</v>
+        <v>0.08853006963683621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1607057416676314</v>
+        <v>0.1606455350532922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3153,19 +3153,19 @@
         <v>17994</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10027</v>
+        <v>10444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27114</v>
+        <v>28080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07494660026532766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04176470818761124</v>
+        <v>0.0435023951142067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1129324660957594</v>
+        <v>0.116957943639366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -3174,19 +3174,19 @@
         <v>60646</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45490</v>
+        <v>45739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77428</v>
+        <v>76085</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1031690261526275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07738710062928149</v>
+        <v>0.07780993826194615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1317184105925165</v>
+        <v>0.1294335279202863</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>35919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25448</v>
+        <v>25790</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48791</v>
+        <v>49802</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1032925377941827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07318086483073859</v>
+        <v>0.07416523553042347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1403101096907992</v>
+        <v>0.1432168707977613</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -3224,19 +3224,19 @@
         <v>20145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11870</v>
+        <v>12055</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30565</v>
+        <v>30972</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0839060058751816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04943862354343034</v>
+        <v>0.05021080889788843</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1273075817975518</v>
+        <v>0.1290004970226437</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -3245,19 +3245,19 @@
         <v>56064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42998</v>
+        <v>41604</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74922</v>
+        <v>74813</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09537443615412587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07314749183933617</v>
+        <v>0.07077575957858392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1274552214931328</v>
+        <v>0.1272696106733527</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>7996</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3132</v>
+        <v>3955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15114</v>
+        <v>15343</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02299546686988788</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009007294711356164</v>
+        <v>0.01137315374550535</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04346476225155757</v>
+        <v>0.04412196673303258</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -3295,19 +3295,19 @@
         <v>14009</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7630</v>
+        <v>6815</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22936</v>
+        <v>22126</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05834828698383515</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03178044953678846</v>
+        <v>0.0283849301868877</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09553075634293487</v>
+        <v>0.09215866881539075</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -3316,19 +3316,19 @@
         <v>22005</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14190</v>
+        <v>14383</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32957</v>
+        <v>33625</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03743472934831588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02413921252667436</v>
+        <v>0.02446871645592853</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05606494367718085</v>
+        <v>0.05720279979151929</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>31154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20620</v>
+        <v>21647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44299</v>
+        <v>42792</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08958880156266055</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05929605494379315</v>
+        <v>0.06225017205092057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1273913086806829</v>
+        <v>0.1230573621917215</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3366,19 +3366,19 @@
         <v>19374</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11426</v>
+        <v>11620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29032</v>
+        <v>31706</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08069587515222722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04759084875638974</v>
+        <v>0.04839752567728802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.120922276254032</v>
+        <v>0.1320581542307935</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3387,19 +3387,19 @@
         <v>50528</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37871</v>
+        <v>37626</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66277</v>
+        <v>68294</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08595663591851346</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06442554904440091</v>
+        <v>0.06400898005869947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1127496292896948</v>
+        <v>0.1161801875538501</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>18010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10942</v>
+        <v>10628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27991</v>
+        <v>26845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05179200188289599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03146566696975083</v>
+        <v>0.03056165968500687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08049535044202158</v>
+        <v>0.07719815540344169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3437,19 +3437,19 @@
         <v>5217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1272</v>
+        <v>1294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13488</v>
+        <v>13191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02173151553171807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005300087539568566</v>
+        <v>0.005390494627579564</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05618091610410245</v>
+        <v>0.05494335476295228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -3458,19 +3458,19 @@
         <v>23228</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14785</v>
+        <v>15144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34586</v>
+        <v>36044</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03951430377409306</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02515180638897787</v>
+        <v>0.02576218344434019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05883753891968496</v>
+        <v>0.06131763175478489</v>
       </c>
     </row>
     <row r="15">
@@ -3487,19 +3487,19 @@
         <v>256366</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>239502</v>
+        <v>239216</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>273084</v>
+        <v>272983</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7372336469035571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6887394335688938</v>
+        <v>0.6879161699360117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7853108623484422</v>
+        <v>0.7850214474787433</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>174</v>
@@ -3508,19 +3508,19 @@
         <v>188593</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>173010</v>
+        <v>173223</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>201167</v>
+        <v>200340</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7855120379311686</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7206088005634973</v>
+        <v>0.7214950619559202</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8378852936161204</v>
+        <v>0.8344424812031777</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>412</v>
@@ -3529,19 +3529,19 @@
         <v>444958</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>423193</v>
+        <v>422293</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>466846</v>
+        <v>466574</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7569521405862958</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7199257720114036</v>
+        <v>0.7183954948168733</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7941880253546238</v>
+        <v>0.7937255541182368</v>
       </c>
     </row>
     <row r="16">
@@ -3562,19 +3562,19 @@
         <v>11151</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5991</v>
+        <v>5278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20465</v>
+        <v>18704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1158356908715611</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06223880167571889</v>
+        <v>0.05482853653479224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2125907363098345</v>
+        <v>0.1943016350655735</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6929</v>
+        <v>6057</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02567885311089783</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08951831788955751</v>
+        <v>0.07825562762387341</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3604,19 +3604,19 @@
         <v>13138</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7133</v>
+        <v>6959</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22551</v>
+        <v>22565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07565273275098412</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04107181995119137</v>
+        <v>0.0400736582286428</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1298500055811782</v>
+        <v>0.129933023311292</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>6176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2742</v>
+        <v>2108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12683</v>
+        <v>12199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06415983881941578</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02847928023302098</v>
+        <v>0.02189668050862287</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1317504738816899</v>
+        <v>0.1267248150565952</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3654,19 +3654,19 @@
         <v>11982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6349</v>
+        <v>6141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20270</v>
+        <v>20615</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1548051655666249</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08202135731474904</v>
+        <v>0.07933943082762296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.261873644878156</v>
+        <v>0.2663384134052412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -3675,19 +3675,19 @@
         <v>18159</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10876</v>
+        <v>11090</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27806</v>
+        <v>28386</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1045605167821731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06262880234496214</v>
+        <v>0.06386064285158603</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1601099285634968</v>
+        <v>0.1634532344177127</v>
       </c>
     </row>
     <row r="18">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5813</v>
+        <v>5827</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01980620919610747</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06038214068397683</v>
+        <v>0.0605308238933196</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6737</v>
+        <v>6600</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02628008396580165</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08703703012144628</v>
+        <v>0.08526988634291426</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -3746,19 +3746,19 @@
         <v>3941</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9122</v>
+        <v>9129</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02269161916843886</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005598750116026533</v>
+        <v>0.005707401890888319</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05252768864112207</v>
+        <v>0.05256484945325947</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>8999</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4542</v>
+        <v>4518</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16585</v>
+        <v>15698</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09347905435985655</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04718832047376765</v>
+        <v>0.04693444483907006</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1722888409858168</v>
+        <v>0.1630692194680592</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3796,19 +3796,19 @@
         <v>8927</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4341</v>
+        <v>3995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15518</v>
+        <v>16064</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1153310125600334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05607668714962102</v>
+        <v>0.05161721949867652</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2004795526413772</v>
+        <v>0.2075413354967904</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -3817,19 +3817,19 @@
         <v>17926</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11654</v>
+        <v>11068</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28274</v>
+        <v>26921</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1032184855890364</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06710706803161888</v>
+        <v>0.06373165395922158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.162804403657983</v>
+        <v>0.1550177549843682</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>2770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8046</v>
+        <v>7627</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02877217580001973</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008872955387584569</v>
+        <v>0.008988192531886399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08358834900273168</v>
+        <v>0.07923189967677183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -3867,19 +3867,19 @@
         <v>4942</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10287</v>
+        <v>10594</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06384999559416363</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02454484768099623</v>
+        <v>0.02452860144122035</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1329013540516231</v>
+        <v>0.1368648731442766</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -3888,19 +3888,19 @@
         <v>7712</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3704</v>
+        <v>3709</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14433</v>
+        <v>14115</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04440638168788671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02132899656758992</v>
+        <v>0.0213543642826452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08310864746685011</v>
+        <v>0.08127815200809557</v>
       </c>
     </row>
     <row r="21">
@@ -3917,19 +3917,19 @@
         <v>74092</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>65171</v>
+        <v>64603</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>82167</v>
+        <v>81345</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7696878053918185</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6770099199445855</v>
+        <v>0.6711062555019199</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8535640181619432</v>
+        <v>0.84502842475509</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -3938,19 +3938,19 @@
         <v>61637</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53230</v>
+        <v>53173</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67294</v>
+        <v>68167</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7963156151059927</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6877050082801628</v>
+        <v>0.6869603495199605</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8693926367651033</v>
+        <v>0.8806761013055824</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>120</v>
@@ -3959,19 +3959,19 @@
         <v>135730</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>123517</v>
+        <v>123126</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>145820</v>
+        <v>146409</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7815558365823956</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.711233217562277</v>
+        <v>0.7089789312514398</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8396560201667854</v>
+        <v>0.8430504958205952</v>
       </c>
     </row>
     <row r="22">
@@ -3992,19 +3992,19 @@
         <v>160776</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1970111989947081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -4013,19 +4013,19 @@
         <v>34474</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24880</v>
+        <v>23539</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48211</v>
+        <v>46894</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08918084158552782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06436110133810984</v>
+        <v>0.06089297614524579</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1247166640613382</v>
+        <v>0.1213098942398595</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>180</v>
@@ -4034,19 +4034,19 @@
         <v>195250</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>170918</v>
+        <v>169057</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223632</v>
+        <v>224125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1623512944032847</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1421190670827721</v>
+        <v>0.1405724320074752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1859513318472903</v>
+        <v>0.1863612369592128</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>86275</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1057195120927983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -4084,19 +4084,19 @@
         <v>34120</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23134</v>
+        <v>24193</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47098</v>
+        <v>49865</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08826475840837188</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05984457403281686</v>
+        <v>0.06258487839055131</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1218369232373616</v>
+        <v>0.1289960918323708</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>109</v>
@@ -4105,19 +4105,19 @@
         <v>120395</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>101070</v>
+        <v>98671</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>142384</v>
+        <v>143456</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.100109031779974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08404057428747684</v>
+        <v>0.08204524375136643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1183928959825496</v>
+        <v>0.1192849178001658</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>17144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02100840686648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -4155,19 +4155,19 @@
         <v>19143</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11485</v>
+        <v>11371</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29282</v>
+        <v>29007</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04952194014234908</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02971085658554116</v>
+        <v>0.02941456597556651</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07575033240690114</v>
+        <v>0.07503793283111447</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -4176,19 +4176,19 @@
         <v>36288</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24986</v>
+        <v>25654</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49204</v>
+        <v>50950</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03017350996593298</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02077588089349098</v>
+        <v>0.02133134986575567</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04091321152265709</v>
+        <v>0.04236494353213351</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>63249</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07750462479265627</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -4226,19 +4226,19 @@
         <v>31362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21894</v>
+        <v>20972</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45497</v>
+        <v>43978</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08113006587733479</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05663635235023463</v>
+        <v>0.0542529977100069</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1176956717851078</v>
+        <v>0.1137672476144442</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -4247,19 +4247,19 @@
         <v>94611</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77316</v>
+        <v>76211</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>118388</v>
+        <v>116974</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0786699500787439</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06428894628481133</v>
+        <v>0.06337019256574011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09844012968822373</v>
+        <v>0.09726468729139473</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>30416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03727126385474394</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -4297,19 +4297,19 @@
         <v>12387</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6049</v>
+        <v>6407</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21132</v>
+        <v>22450</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03204416502593364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01564914951025814</v>
+        <v>0.01657551846487611</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05466674580952159</v>
+        <v>0.0580768784410002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -4318,19 +4318,19 @@
         <v>42803</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31916</v>
+        <v>31774</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58407</v>
+        <v>57208</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03559111782676572</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02653817855252924</v>
+        <v>0.02642032266392394</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0485656747872707</v>
+        <v>0.04756860992195402</v>
       </c>
     </row>
     <row r="27">
@@ -4347,19 +4347,19 @@
         <v>549572</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6734354511933404</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>273</v>
@@ -4368,19 +4368,19 @@
         <v>299655</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>281234</v>
+        <v>281836</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>314619</v>
+        <v>317475</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7751785687476537</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7275233807978522</v>
+        <v>0.7290823096183738</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8138878409392467</v>
+        <v>0.8212771711365582</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>785</v>
@@ -4389,19 +4389,19 @@
         <v>849228</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>813008</v>
+        <v>815196</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>880244</v>
+        <v>878355</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7061387346841382</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6760217306435646</v>
+        <v>0.6778407519312715</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7319285241105475</v>
+        <v>0.7303578141698491</v>
       </c>
     </row>
     <row r="28">
@@ -4661,19 +4661,19 @@
         <v>52937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41365</v>
+        <v>41620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65085</v>
+        <v>65512</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2522987485861586</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1971470656757774</v>
+        <v>0.1983613677349126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3101984838628154</v>
+        <v>0.312236107152673</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4682,19 +4682,19 @@
         <v>3057</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7352</v>
+        <v>7350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08122855522010583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02543015844286986</v>
+        <v>0.02536591378583354</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1953722671630599</v>
+        <v>0.1953269614690553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -4703,19 +4703,19 @@
         <v>55993</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43726</v>
+        <v>43875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69483</v>
+        <v>69874</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2262835210919164</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1767093759834528</v>
+        <v>0.1773114696814696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2807993677570571</v>
+        <v>0.2823797879951724</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>40491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31018</v>
+        <v>30637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52770</v>
+        <v>52248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.192984656593217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1478333621293136</v>
+        <v>0.1460178903730165</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2515029447967411</v>
+        <v>0.2490183581977196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -4753,19 +4753,19 @@
         <v>8250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4049</v>
+        <v>4111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14123</v>
+        <v>13865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2192401840148109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1076026546128509</v>
+        <v>0.10924214621581</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3752991370823439</v>
+        <v>0.3684621402148185</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -4774,19 +4774,19 @@
         <v>48742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37856</v>
+        <v>35883</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64196</v>
+        <v>61478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1969774241549659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1529839585199863</v>
+        <v>0.1450132548839551</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.259430515521493</v>
+        <v>0.2484475259038062</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>20959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13140</v>
+        <v>13903</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31080</v>
+        <v>31053</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09989259653198501</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06262538709920677</v>
+        <v>0.06626092906782846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1481282199289081</v>
+        <v>0.1480020221289153</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -4824,19 +4824,19 @@
         <v>4927</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2036</v>
+        <v>1719</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10686</v>
+        <v>10930</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1309248474063114</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05411586124677249</v>
+        <v>0.04567643688411779</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2839650670962684</v>
+        <v>0.2904618391676723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -4845,19 +4845,19 @@
         <v>25886</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16847</v>
+        <v>17455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36135</v>
+        <v>37291</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1046117767133421</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06808468428013656</v>
+        <v>0.07053847110374095</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1460325419198774</v>
+        <v>0.1507025797976828</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>16918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10599</v>
+        <v>10446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26780</v>
+        <v>25536</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08063129737049124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05051453144791528</v>
+        <v>0.04978423708191004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.127635125802535</v>
+        <v>0.1217069448696264</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4895,19 +4895,19 @@
         <v>4952</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1934</v>
+        <v>1959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9806</v>
+        <v>10311</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1315929022664033</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05138478970363854</v>
+        <v>0.05205098828398787</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2605776317413359</v>
+        <v>0.2739970634069595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -4916,19 +4916,19 @@
         <v>21870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13714</v>
+        <v>14519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31275</v>
+        <v>32285</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08838120235833426</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05542094166655263</v>
+        <v>0.05867384368246755</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1263889468389184</v>
+        <v>0.1304718895935576</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>11176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6483</v>
+        <v>5822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19186</v>
+        <v>18326</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05326593150330135</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03089672782462317</v>
+        <v>0.02774660404578217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09144394298908336</v>
+        <v>0.08734505941775697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4855</v>
+        <v>5320</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02751904362574318</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1290236404635428</v>
+        <v>0.1413694698279556</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -4987,19 +4987,19 @@
         <v>12212</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6534</v>
+        <v>7085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19186</v>
+        <v>19839</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04935051449099825</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02640445042756828</v>
+        <v>0.02863054173257148</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07753664965284918</v>
+        <v>0.08017337909063668</v>
       </c>
     </row>
     <row r="9">
@@ -5016,19 +5016,19 @@
         <v>107572</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>93808</v>
+        <v>94304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>120499</v>
+        <v>120950</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5126923018701622</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4470935169174448</v>
+        <v>0.4494596870113621</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5743062818190104</v>
+        <v>0.5764554549086079</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -5037,19 +5037,19 @@
         <v>23332</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17197</v>
+        <v>17256</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28831</v>
+        <v>28832</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6200279443508119</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4570003297710789</v>
+        <v>0.4585662231922752</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7661642414074643</v>
+        <v>0.7661877748843108</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>135</v>
@@ -5058,19 +5058,19 @@
         <v>130904</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>114930</v>
+        <v>116561</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>146435</v>
+        <v>146098</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5290151989361619</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4644632034475654</v>
+        <v>0.4710542726818963</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5917822391141202</v>
+        <v>0.5904194039863593</v>
       </c>
     </row>
     <row r="10">
@@ -5091,19 +5091,19 @@
         <v>50038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36927</v>
+        <v>38142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64993</v>
+        <v>65029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1656671814702035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1222579955161416</v>
+        <v>0.1262798454129366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2151803030443859</v>
+        <v>0.2152993456972214</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -5112,19 +5112,19 @@
         <v>22118</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14173</v>
+        <v>14048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32244</v>
+        <v>32897</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1099998995250723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07048519811964729</v>
+        <v>0.06986339100525152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1603602377309613</v>
+        <v>0.1636070402616805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -5133,19 +5133,19 @@
         <v>72156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58400</v>
+        <v>56224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90764</v>
+        <v>87865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1434194870315701</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1160765281408579</v>
+        <v>0.1117520874016577</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1804044640360926</v>
+        <v>0.1746427556447058</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>47229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35337</v>
+        <v>35690</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61981</v>
+        <v>61267</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1563672011618737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1169948084764701</v>
+        <v>0.1181627147268601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.205208483424113</v>
+        <v>0.202841741453182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -5183,19 +5183,19 @@
         <v>27407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18357</v>
+        <v>18739</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37932</v>
+        <v>39618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1363058456191505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0912957847473002</v>
+        <v>0.09319431947609762</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1886520825301134</v>
+        <v>0.1970335840661492</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>70</v>
@@ -5204,19 +5204,19 @@
         <v>74637</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58683</v>
+        <v>60511</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91556</v>
+        <v>91709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1483495848432037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1166397725308159</v>
+        <v>0.1202741516723071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1819796101000921</v>
+        <v>0.1822840770703984</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>26908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17704</v>
+        <v>18457</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38825</v>
+        <v>38167</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0890876735857003</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05861522985577351</v>
+        <v>0.06110854182143337</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1285424809748801</v>
+        <v>0.1263640196912137</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -5254,19 +5254,19 @@
         <v>25219</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17839</v>
+        <v>15885</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36477</v>
+        <v>36602</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1254214361649394</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08872201702496131</v>
+        <v>0.07900393870832972</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.181412818652233</v>
+        <v>0.1820345777727778</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -5275,19 +5275,19 @@
         <v>52127</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39680</v>
+        <v>38773</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>68408</v>
+        <v>66486</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1036086349012808</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07886799081459427</v>
+        <v>0.07706649856942681</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1359694545931006</v>
+        <v>0.1321485368991593</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>37982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27037</v>
+        <v>26440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51815</v>
+        <v>49707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1257499533841657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08951547719604989</v>
+        <v>0.08753699357515091</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1715484062980137</v>
+        <v>0.1645714010709191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -5325,19 +5325,19 @@
         <v>12488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6763</v>
+        <v>5882</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22608</v>
+        <v>20921</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06210972426705058</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03363359150303212</v>
+        <v>0.02925216757008842</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1124378129566376</v>
+        <v>0.1040478874907761</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -5346,19 +5346,19 @@
         <v>50470</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38152</v>
+        <v>38283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66266</v>
+        <v>65171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1003158326236491</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0758315469642822</v>
+        <v>0.07609294639586507</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1317123326007148</v>
+        <v>0.1295354366379257</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>13558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7293</v>
+        <v>7153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23263</v>
+        <v>22437</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0448891034753634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02414549339418208</v>
+        <v>0.02368163616643027</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07701845101676356</v>
+        <v>0.07428543767024429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -5396,19 +5396,19 @@
         <v>9871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4927</v>
+        <v>4405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16784</v>
+        <v>16893</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04909273447281413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02450419550786863</v>
+        <v>0.02190551722061358</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08347264076547546</v>
+        <v>0.08401631542538189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -5417,19 +5417,19 @@
         <v>23430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15163</v>
+        <v>14731</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35098</v>
+        <v>33674</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04656910463037275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03013769790531808</v>
+        <v>0.02927968661095049</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06976184741199852</v>
+        <v>0.06693120915873989</v>
       </c>
     </row>
     <row r="15">
@@ -5446,19 +5446,19 @@
         <v>191349</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>173552</v>
+        <v>173868</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>208511</v>
+        <v>208647</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6335195235788617</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5745972678700871</v>
+        <v>0.5756428548178256</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6903410441136688</v>
+        <v>0.6907894839822178</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>127</v>
@@ -5467,19 +5467,19 @@
         <v>135473</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>119209</v>
+        <v>120818</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>147376</v>
+        <v>147382</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6737577774727441</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5928726335401494</v>
+        <v>0.6008708940163349</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7329544008236041</v>
+        <v>0.732984087556427</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>308</v>
@@ -5488,19 +5488,19 @@
         <v>326823</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>305488</v>
+        <v>305170</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>347537</v>
+        <v>348870</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6496009334500606</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6071950167620241</v>
+        <v>0.6065629924414757</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6907739997658547</v>
+        <v>0.6934222826608286</v>
       </c>
     </row>
     <row r="16">
@@ -5521,19 +5521,19 @@
         <v>12007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6416</v>
+        <v>6073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20299</v>
+        <v>21774</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1339930446255902</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07159216811930484</v>
+        <v>0.06777225548593502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2265177460289277</v>
+        <v>0.2429853268869286</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -5542,19 +5542,19 @@
         <v>4901</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10510</v>
+        <v>10464</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05154898926793238</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01968204377832775</v>
+        <v>0.01971063457968003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1105519090732322</v>
+        <v>0.1100625842641939</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -5563,19 +5563,19 @@
         <v>16908</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10197</v>
+        <v>10615</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27468</v>
+        <v>28303</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09155305794051759</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05521321735203744</v>
+        <v>0.05747648760984447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.148732490360707</v>
+        <v>0.1532527398914866</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>7330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3033</v>
+        <v>2457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15246</v>
+        <v>14755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08179983377444723</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03384526000042368</v>
+        <v>0.02742372611957208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1701368541672728</v>
+        <v>0.164655278951618</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -5613,19 +5613,19 @@
         <v>10075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4828</v>
+        <v>5146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16872</v>
+        <v>16944</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1059746849053663</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05077901055327198</v>
+        <v>0.05413303600691674</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1774705119919505</v>
+        <v>0.1782284841970605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -5634,19 +5634,19 @@
         <v>17405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9957</v>
+        <v>10286</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27398</v>
+        <v>27179</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0942443982207123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05391685698927685</v>
+        <v>0.05569394457558361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1483526112835183</v>
+        <v>0.1471653795387643</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>9459</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4392</v>
+        <v>5048</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16937</v>
+        <v>17344</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1055518147596321</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04901680771467438</v>
+        <v>0.05632650891618274</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1890009758753805</v>
+        <v>0.1935404801249935</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -5684,19 +5684,19 @@
         <v>13115</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7455</v>
+        <v>6782</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22780</v>
+        <v>21171</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1379490159601655</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07842186814583012</v>
+        <v>0.07133811211649568</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2396114460425763</v>
+        <v>0.2226892086698124</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -5705,19 +5705,19 @@
         <v>22573</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15076</v>
+        <v>14042</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34285</v>
+        <v>32791</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1222290243124558</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08163077971927506</v>
+        <v>0.07603399396570797</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1856431861876815</v>
+        <v>0.1775525342462881</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>15681</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8868</v>
+        <v>9171</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24461</v>
+        <v>25056</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1749825351713776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09895682340092772</v>
+        <v>0.1023401339271585</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2729711436653044</v>
+        <v>0.2796038282016816</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -5755,19 +5755,19 @@
         <v>10022</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5157</v>
+        <v>5067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17922</v>
+        <v>17199</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1054151585355959</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05424396761415554</v>
+        <v>0.05329716702371538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1885207847999422</v>
+        <v>0.1809108062016702</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -5776,19 +5776,19 @@
         <v>25702</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16000</v>
+        <v>16854</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35683</v>
+        <v>37353</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1391711170487516</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08663658190323341</v>
+        <v>0.09126172303562954</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1932156254216336</v>
+        <v>0.2022554520070494</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>5650</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1958</v>
+        <v>1850</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13469</v>
+        <v>12868</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06304441160104586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0218447009173693</v>
+        <v>0.0206472516071144</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1503022902243001</v>
+        <v>0.1436005698017967</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -5826,19 +5826,19 @@
         <v>5200</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1866</v>
+        <v>1981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11178</v>
+        <v>11651</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05469724237054816</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01963301261806446</v>
+        <v>0.02084228396644144</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1175764224119133</v>
+        <v>0.1225530963548929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -5847,19 +5847,19 @@
         <v>10850</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5682</v>
+        <v>5536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19653</v>
+        <v>17764</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05874751294093567</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03076533565627222</v>
+        <v>0.02997343438322536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1064141010825724</v>
+        <v>0.09618863593269196</v>
       </c>
     </row>
     <row r="21">
@@ -5876,19 +5876,19 @@
         <v>62244</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52210</v>
+        <v>51617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71580</v>
+        <v>71419</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6945947634015601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5826275341146077</v>
+        <v>0.5760084900033589</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7987779914609408</v>
+        <v>0.7969852886165818</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -5897,19 +5897,19 @@
         <v>73437</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>64158</v>
+        <v>64497</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>80846</v>
+        <v>80397</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7724633290923396</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6748588932227894</v>
+        <v>0.6784254173897237</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8503980939044813</v>
+        <v>0.8456717202742151</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>123</v>
@@ -5918,19 +5918,19 @@
         <v>135681</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>121280</v>
+        <v>122477</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147297</v>
+        <v>147982</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7346794108241765</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6567024161850012</v>
+        <v>0.663183240491633</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7975735465271149</v>
+        <v>0.8012845664619206</v>
       </c>
     </row>
     <row r="22">
@@ -5951,19 +5951,19 @@
         <v>114982</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96904</v>
+        <v>96137</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135906</v>
+        <v>135812</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1911687038608177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1611111929572938</v>
+        <v>0.1598358610240491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.225956749305115</v>
+        <v>0.2257991989714504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -5972,19 +5972,19 @@
         <v>30075</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21043</v>
+        <v>20786</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41384</v>
+        <v>41463</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09010739989541242</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06304732552258402</v>
+        <v>0.06227764544163288</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1239897657893975</v>
+        <v>0.1242262299301503</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -5993,19 +5993,19 @@
         <v>145058</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121580</v>
+        <v>122906</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165788</v>
+        <v>168863</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1551017857049727</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1299983183199668</v>
+        <v>0.1314164121834014</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1772672169413028</v>
+        <v>0.1805551220695887</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>95051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79155</v>
+        <v>78461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>115400</v>
+        <v>114047</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1580311868684915</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1316027408691852</v>
+        <v>0.1304489703046782</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.191862305323746</v>
+        <v>0.1896126659162049</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -6043,19 +6043,19 @@
         <v>45732</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34099</v>
+        <v>33354</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>59728</v>
+        <v>58523</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1370167826674053</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.102162154259961</v>
+        <v>0.09992960009298725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1789489079292576</v>
+        <v>0.1753379968043621</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>138</v>
@@ -6064,19 +6064,19 @@
         <v>140783</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>119980</v>
+        <v>118856</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>164500</v>
+        <v>164477</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1505315330279486</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1282876994903369</v>
+        <v>0.1270861494550102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1758905867903382</v>
+        <v>0.1758656451055916</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>57326</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44088</v>
+        <v>44020</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73125</v>
+        <v>73694</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09530983259956112</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07330085697129381</v>
+        <v>0.0731870925474261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1215774409972473</v>
+        <v>0.1225236753701697</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -6114,19 +6114,19 @@
         <v>43260</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31528</v>
+        <v>32452</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56759</v>
+        <v>56903</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1296101720790038</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09445992811429403</v>
+        <v>0.0972278675146156</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1700536189138698</v>
+        <v>0.1704849633311114</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>95</v>
@@ -6135,19 +6135,19 @@
         <v>100586</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82122</v>
+        <v>81360</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>121574</v>
+        <v>121239</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1075509920560653</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0878087940185063</v>
+        <v>0.0869933056348688</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1299921858419699</v>
+        <v>0.1296336503985104</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>70580</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55189</v>
+        <v>54971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86224</v>
+        <v>86602</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1173458180614095</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09175707385840749</v>
+        <v>0.09139385384022725</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1433543878913637</v>
+        <v>0.1439833858663452</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -6185,19 +6185,19 @@
         <v>27462</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18891</v>
+        <v>18073</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38663</v>
+        <v>38209</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08227826018380612</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0566002398085578</v>
+        <v>0.0541474674145484</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1158368777260382</v>
+        <v>0.1144777221512234</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -6206,19 +6206,19 @@
         <v>98042</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79011</v>
+        <v>79527</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>118545</v>
+        <v>120776</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1048308524883368</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08448240135234475</v>
+        <v>0.08503388742798172</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1267535705256512</v>
+        <v>0.1291384738073403</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>30384</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20844</v>
+        <v>20853</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42601</v>
+        <v>42506</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05051620876133214</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03465526804719946</v>
+        <v>0.03466979258828245</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07082825710232435</v>
+        <v>0.07067088584557621</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -6256,19 +6256,19 @@
         <v>16107</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9701</v>
+        <v>9101</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24937</v>
+        <v>25081</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04825680455219454</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02906552110540956</v>
+        <v>0.02726645189686472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07471197563443564</v>
+        <v>0.07514395612485952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -6277,19 +6277,19 @@
         <v>46491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36073</v>
+        <v>34655</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63339</v>
+        <v>62017</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04970986901016652</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0385709237147206</v>
+        <v>0.03705511534377517</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0677249250329103</v>
+        <v>0.06631088830568405</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>361165</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>335757</v>
+        <v>336995</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>385191</v>
+        <v>385110</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6004695926947462</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5582272069793612</v>
+        <v>0.5602840674760071</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6404151876150637</v>
+        <v>0.6402810688927552</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>216</v>
@@ -6327,19 +6327,19 @@
         <v>232242</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>215658</v>
+        <v>216990</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>248656</v>
+        <v>248426</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6958147089394141</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6461281203460086</v>
+        <v>0.6501190708287049</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7449932727655002</v>
+        <v>0.7443022915395447</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>566</v>
@@ -6348,19 +6348,19 @@
         <v>593407</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>560725</v>
+        <v>560970</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>622466</v>
+        <v>625791</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6344965087271488</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5995509631086789</v>
+        <v>0.5998137944614876</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6655672350317469</v>
+        <v>0.6691227342259674</v>
       </c>
     </row>
     <row r="28">
